--- a/Mia/LCDataDictionary.xlsx
+++ b/Mia/LCDataDictionary.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miazh_000\Desktop\capstone\Mia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6912490-35A5-4511-B709-C7F575BEE448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364F2596-C6EA-4874-BE7E-BFEB81846823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1896" windowWidth="12960" windowHeight="8712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoanStats" sheetId="3" r:id="rId1"/>
-    <sheet name="browseNotes" sheetId="6" r:id="rId2"/>
-    <sheet name="RejectStats" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId5"/>
+    <sheet name="Capstone" sheetId="8" r:id="rId1"/>
+    <sheet name="Reference" sheetId="10" r:id="rId2"/>
+    <sheet name="LoanStats" sheetId="3" r:id="rId3"/>
+    <sheet name="browseNotes" sheetId="6" r:id="rId4"/>
+    <sheet name="RejectStats" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LoanStats!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1218,7 +1218,7 @@
     <t>total_rev_hi_lim</t>
   </si>
   <si>
-    <t xml:space="preserve">Column Names </t>
+    <t xml:space="preserve">Accepted Column Names </t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1590,6 +1590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,7 +1847,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1885,6 +1891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2279,6 +2286,3172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051187F3-BE4B-40FE-8A6E-CC2962D4D6D5}">
+  <dimension ref="A1:B111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.88671875" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9BCB1-703A-4B5C-B14D-E2DDE8000827}">
+  <dimension ref="A1:B280"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="193.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="B257" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B267" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B268" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B275" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B277" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B278" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B279" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A280" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3602,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
@@ -4784,12 +7957,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4891,3170 +8064,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051187F3-BE4B-40FE-8A6E-CC2962D4D6D5}">
-  <dimension ref="A1:B111"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.88671875" style="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>384</v>
-      </c>
-      <c r="B61" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>275</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>277</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>287</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>289</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>296</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>297</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>298</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>299</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>302</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>305</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>306</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>307</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>308</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9BCB1-703A-4B5C-B14D-E2DDE8000827}">
-  <dimension ref="A1:B280"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="193.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B123" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B126" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B155" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B226" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B227" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B228" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B229" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B241" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B244" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B245" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B247" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B257" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="B258" s="18" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B259" s="18" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B261" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B262" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="B263" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B264" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B265" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="B267" s="18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B268" s="18" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="B270" s="18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="B273" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="B274" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B275" s="20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B276" s="19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="B277" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B278" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B279" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A280" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="B280" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mia/LCDataDictionary.xlsx
+++ b/Mia/LCDataDictionary.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miazh_000\Desktop\capstone\Mia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364F2596-C6EA-4874-BE7E-BFEB81846823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F648FAF-E972-47AE-BB25-A61FA901C71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Capstone" sheetId="8" r:id="rId1"/>
+    <sheet name="Capstone 2007-2018" sheetId="12" r:id="rId1"/>
     <sheet name="Reference" sheetId="10" r:id="rId2"/>
     <sheet name="LoanStats" sheetId="3" r:id="rId3"/>
     <sheet name="browseNotes" sheetId="6" r:id="rId4"/>
     <sheet name="RejectStats" sheetId="7" r:id="rId5"/>
+    <sheet name="Capstone" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Capstone 2007-2018'!$A$1:$B$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LoanStats!$A$1:$B$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="399">
   <si>
     <t>id</t>
   </si>
@@ -1219,6 +1221,42 @@
   </si>
   <si>
     <t xml:space="preserve">Accepted Column Names </t>
+  </si>
+  <si>
+    <t>revol_bal_joint</t>
+  </si>
+  <si>
+    <t>sec_app_fico_range_low</t>
+  </si>
+  <si>
+    <t>sec_app_fico_range_high</t>
+  </si>
+  <si>
+    <t>sec_app_earliest_cr_line</t>
+  </si>
+  <si>
+    <t>sec_app_inq_last_6mths</t>
+  </si>
+  <si>
+    <t>sec_app_mort_acc</t>
+  </si>
+  <si>
+    <t>sec_app_open_acc</t>
+  </si>
+  <si>
+    <t>sec_app_revol_util</t>
+  </si>
+  <si>
+    <t>sec_app_num_rev_accts</t>
+  </si>
+  <si>
+    <t>sec_app_chargeoff_within_12_mths</t>
+  </si>
+  <si>
+    <t>sec_app_collections_12_mths_ex_med</t>
+  </si>
+  <si>
+    <t>sec_app_mths_since_last_major_derog</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1596,6 +1634,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,7 +1909,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1892,6 +1954,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1987,7 +2053,136 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF31869B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF31869B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB1A0C7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF31869B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF31869B"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2286,17 +2481,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051187F3-BE4B-40FE-8A6E-CC2962D4D6D5}">
-  <dimension ref="A1:B111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD8CDC-4AFC-4F42-B1EF-253791416A04}">
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.88671875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -2308,886 +2503,1371 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="26" t="e">
+        <f>VLOOKUP(A2,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="26" t="e">
+        <f>VLOOKUP(A3,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f>VLOOKUP(A4,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve"> Number of currently active installment trades at time of application for the secondary applicant</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="26" t="e">
+        <f>VLOOKUP(A5,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="26" t="e">
+        <f>VLOOKUP(A6,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="26" t="e">
+        <f>VLOOKUP(A7,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="26" t="e">
+        <f>VLOOKUP(A8,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="26" t="e">
+        <f>VLOOKUP(A9,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="26" t="e">
+        <f>VLOOKUP(A10,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="26" t="e">
+        <f>VLOOKUP(A11,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B12" s="26" t="e">
+        <f>VLOOKUP(A12,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="26" t="e">
+        <f>VLOOKUP(A13,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="26" t="e">
+        <f>VLOOKUP(A14,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="26" t="e">
+        <f>VLOOKUP(A15,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="26" t="str">
+        <f>VLOOKUP(A16,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f>VLOOKUP(A17,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="26" t="str">
+        <f>VLOOKUP(A18,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="26" t="str">
+        <f>VLOOKUP(A19,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The day the first hardship plan payment is due. For example, if a borrower has a hardship plan period of 3 months, the start date is the start of the three-month period in which the borrower is allowed to make interest-only payments.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="26" t="str">
+        <f>VLOOKUP(A20,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The original projected additional interest amount that will accrue for the given hardship payment plan as of the Hardship Start Date. This field will be null if the borrower has broken their hardship payment plan.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="26" t="str">
+        <f>VLOOKUP(A21,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes the hardship plan offering</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f>VLOOKUP(A22,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes if the hardship plan is active, pending, canceled, completed, or broken</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="26" t="str">
+        <f>VLOOKUP(A23,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The start date of the hardship plan period</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="26" t="str">
+        <f>VLOOKUP(A24,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes the reason the hardship plan was offered</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="26" t="str">
+        <f>VLOOKUP(A25,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The payoff balance amount as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f>VLOOKUP(A26,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Loan Status as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="26" t="str">
+        <f>VLOOKUP(A27,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months the borrower will make smaller payments than normally obligated due to a hardship plan</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="26" t="str">
+        <f>VLOOKUP(A28,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The last payment amount as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="26" t="str">
+        <f>VLOOKUP(A29,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Flags whether or not the borrower is on a hardship plan</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f>VLOOKUP(A30,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The end date of the hardship plan period</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="26" t="str">
+        <f>VLOOKUP(A31,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Account days past due as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" s="26" t="str">
+        <f>VLOOKUP(A32,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The interest payment that the borrower has committed to make each month while they are on a hardship plan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="26" t="str">
+        <f>VLOOKUP(A33,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Amount of months that the borrower is expected to pay less than the contractual monthly payment amount due to a hardship plan</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="26" t="str">
+        <f>VLOOKUP(A34,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months that the borrower will be on the settlement plan</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" s="26" t="str">
+        <f>VLOOKUP(A35,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The status of the borrower’s settlement plan. Possible values are: COMPLETE, ACTIVE, BROKEN, CANCELLED, DENIED, DRAFT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="26" t="str">
+        <f>VLOOKUP(A36,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The settlement amount as a percentage of the payoff balance amount on the loan</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="26" t="str">
+        <f>VLOOKUP(A37,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The date that the borrower agrees to the settlement plan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="26" t="str">
+        <f>VLOOKUP(A38,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The loan amount that the borrower has agreed to settle for</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="26" t="str">
+        <f>VLOOKUP(A39,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The most recent date that the Debt_Settlement_Flag has been set  </v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="26" t="str">
+        <f>VLOOKUP(A40,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Flags whether or not the borrower, who has charged-off, is working with a debt-settlement company.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="26" t="str">
+        <f>VLOOKUP(A41,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>URL for the LC page with listing data.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="26" t="str">
+        <f>VLOOKUP(A42,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A unique LC assigned Id for the borrower member.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>94</v>
+      <c r="B43" s="26" t="str">
+        <f>VLOOKUP(A43,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A unique LC assigned ID for the loan listing.</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>225</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>223</v>
+        <v>247</v>
+      </c>
+      <c r="B44" s="26" t="str">
+        <f>VLOOKUP(A44,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The first 3 numbers of the zip code provided by the borrower in the loan application.</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>226</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>224</v>
+        <v>294</v>
+      </c>
+      <c r="B45" s="26" t="str">
+        <f>VLOOKUP(A45,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>250</v>
+        <v>385</v>
+      </c>
+      <c r="B46" s="26" t="e">
+        <f>VLOOKUP(A46,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>97</v>
+        <v>39</v>
+      </c>
+      <c r="B47" s="26" t="str">
+        <f>VLOOKUP(A47,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Principal received to date</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>98</v>
+        <v>41</v>
+      </c>
+      <c r="B48" s="26" t="str">
+        <f>VLOOKUP(A48,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Late fees received to date</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>251</v>
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="26" t="str">
+        <f>VLOOKUP(A49,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Interest received to date</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>131</v>
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="26" t="str">
+        <f>VLOOKUP(A50,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Payments received to date for portion of total amount funded by investors</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>136</v>
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="26" t="str">
+        <f>VLOOKUP(A51,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Payments received to date for total amount funded</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="26" t="str">
+        <f>VLOOKUP(A52,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total installment high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="26" t="str">
+        <f>VLOOKUP(A53,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of finance trades</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="26" t="str">
+        <f>VLOOKUP(A54,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total bankcard high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="26" t="str">
+        <f>VLOOKUP(A55,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total current balance of all installment accounts</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="26" t="str">
+        <f>VLOOKUP(A56,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total credit balance excluding mortgage</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="26" t="str">
+        <f>VLOOKUP(A57,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="26" t="str">
+        <f>VLOOKUP(A58,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="26" t="str">
+        <f>VLOOKUP(A59,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total current balance of all accounts</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="26" t="str">
+        <f>VLOOKUP(A60,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total collection amounts ever owed</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="26" t="str">
+        <f>VLOOKUP(A61,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The loan title provided by the borrower</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="26" t="str">
+        <f>VLOOKUP(A62,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="26" t="str">
+        <f>VLOOKUP(A63,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of tax liens</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="26" t="str">
+        <f>VLOOKUP(A64,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>LC assigned loan subgrade</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="26" t="str">
+        <f>VLOOKUP(A65,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="26" t="str">
+        <f>VLOOKUP(A66,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total credit revolving balance</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="26" t="str">
+        <f>VLOOKUP(A67,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>post charge off gross recovery</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="26" t="str">
+        <f>VLOOKUP(A68,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates if a payment plan has been put in place for the loan</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="26" t="str">
+        <f>VLOOKUP(A69,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="26" t="str">
+        <f>VLOOKUP(A70,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of public record bankruptcies</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="26" t="str">
+        <f>VLOOKUP(A71,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of derogatory public records</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+      <c r="B72" s="26" t="str">
+        <f>VLOOKUP(A72,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>publicly available policy_code=1
+new products not publicly available policy_code=2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="26" t="str">
+        <f>VLOOKUP(A73,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Percentage of all bankcard accounts &gt; 75% of limit.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="26" t="str">
+        <f>VLOOKUP(A74,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Percent of trades never delinquent</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="26" t="str">
+        <f>VLOOKUP(A75,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="26" t="str">
+        <f>VLOOKUP(A76,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Remaining outstanding principal for total amount funded</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="26" t="str">
+        <f>VLOOKUP(A77,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="26" t="str">
+        <f>VLOOKUP(A78,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="26" t="str">
+        <f>VLOOKUP(A79,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="26" t="str">
+        <f>VLOOKUP(A80,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="26" t="str">
+        <f>VLOOKUP(A81,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active installment trades</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B61" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
-        <v>289</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>133</v>
+      <c r="B82" s="26" t="str">
+        <f>VLOOKUP(A82,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of open trades in last 6 months</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>134</v>
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="26" t="str">
+        <f>VLOOKUP(A83,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of open credit lines in the borrower's credit file.</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>135</v>
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="26" t="str">
+        <f>VLOOKUP(A84,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts opened in past 12 months</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>68</v>
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="26" t="str">
+        <f>VLOOKUP(A85,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts 90 or more days past due in last 24 months</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>72</v>
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="26" t="str">
+        <f>VLOOKUP(A86,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts currently 30 days past due (updated in past 2 months)</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>302</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>303</v>
+        <v>121</v>
+      </c>
+      <c r="B87" s="26" t="str">
+        <f>VLOOKUP(A87,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts currently 120 days past due (updated in past 2 months)</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>71</v>
+        <v>109</v>
+      </c>
+      <c r="B88" s="26" t="str">
+        <f>VLOOKUP(A88,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of satisfactory accounts</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>305</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>74</v>
+        <v>126</v>
+      </c>
+      <c r="B89" s="26" t="str">
+        <f>VLOOKUP(A89,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades with balance &gt;0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>137</v>
+        <v>102</v>
+      </c>
+      <c r="B90" s="26" t="str">
+        <f>VLOOKUP(A90,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving accounts</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="B91" s="26" t="str">
+        <f>VLOOKUP(A91,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of open revolving accounts</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>148</v>
+        <v>122</v>
+      </c>
+      <c r="B92" s="26" t="str">
+        <f>VLOOKUP(A92,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>143</v>
+        <v>115</v>
+      </c>
+      <c r="B93" s="26" t="str">
+        <f>VLOOKUP(A93,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of bankcard accounts</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>141</v>
+        <v>117</v>
+      </c>
+      <c r="B94" s="26" t="str">
+        <f>VLOOKUP(A94,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of satisfactory bankcard accounts</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>147</v>
+        <v>123</v>
+      </c>
+      <c r="B95" s="26" t="str">
+        <f>VLOOKUP(A95,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active revolving trades</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>127</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>150</v>
+        <v>116</v>
+      </c>
+      <c r="B96" s="26" t="str">
+        <f>VLOOKUP(A96,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active bankcard accounts</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>138</v>
+        <v>104</v>
+      </c>
+      <c r="B97" s="26" t="str">
+        <f>VLOOKUP(A97,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts ever 120 or more days past due</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>149</v>
+        <v>44</v>
+      </c>
+      <c r="B98" s="26" t="str">
+        <f>VLOOKUP(A98,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Next scheduled payment date</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>139</v>
+        <v>305</v>
+      </c>
+      <c r="B99" s="26" t="str">
+        <f>VLOOKUP(A99,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent revolving delinquency.</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>146</v>
+        <v>304</v>
+      </c>
+      <c r="B100" s="26" t="str">
+        <f>VLOOKUP(A100,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent inquiry.</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>120</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>145</v>
+        <v>302</v>
+      </c>
+      <c r="B101" s="26" t="str">
+        <f>VLOOKUP(A101,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent bankcard delinquency</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>144</v>
+        <v>301</v>
+      </c>
+      <c r="B102" s="26" t="str">
+        <f>VLOOKUP(A102,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent bankcard account opened.</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>140</v>
+        <v>273</v>
+      </c>
+      <c r="B103" s="26" t="str">
+        <f>VLOOKUP(A103,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent installment accounts opened</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>118</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>151</v>
+        <v>28</v>
+      </c>
+      <c r="B104" s="26" t="str">
+        <f>VLOOKUP(A104,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months since the last public record.</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>306</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>76</v>
+        <v>108</v>
+      </c>
+      <c r="B105" s="26" t="str">
+        <f>VLOOKUP(A105,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent 90-day or worse rating</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="26" t="str">
+        <f>VLOOKUP(A106,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months since the borrower's last delinquency.</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>153</v>
+        <v>300</v>
+      </c>
+      <c r="B107" s="26" t="str">
+        <f>VLOOKUP(A107,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of mortgage accounts.</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>154</v>
+        <v>111</v>
+      </c>
+      <c r="B108" s="26" t="str">
+        <f>VLOOKUP(A108,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent account opened</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>307</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="B109" s="26" t="str">
+        <f>VLOOKUP(A109,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent revolving account opened</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>308</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>85</v>
+        <v>124</v>
+      </c>
+      <c r="B110" s="26" t="str">
+        <f>VLOOKUP(A110,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since oldest revolving account opened</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>157</v>
+        <v>299</v>
+      </c>
+      <c r="B111" s="26" t="str">
+        <f>VLOOKUP(A111,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since oldest bank installment account opened</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="26" t="str">
+        <f>VLOOKUP(A112,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Maximum current balance owed on all revolving accounts</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="26" t="str">
+        <f>VLOOKUP(A113,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Current status of the loan</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="26" t="str">
+        <f>VLOOKUP(A114,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="26" t="str">
+        <f>VLOOKUP(A115,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Last month payment was received</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="26" t="str">
+        <f>VLOOKUP(A116,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Last total payment amount received</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="26" t="str">
+        <f>VLOOKUP(A117,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The lower boundary range the borrower’s last FICO pulled belongs to.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="26" t="str">
+        <f>VLOOKUP(A118,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The upper boundary range the borrower’s last FICO pulled belongs to.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="26" t="str">
+        <f>VLOOKUP(A119,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The most recent month LC pulled credit for this loan</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="26" t="str">
+        <f>VLOOKUP(A120,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The month which the loan was funded</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="26" t="str">
+        <f>VLOOKUP(A121,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Interest Rate on the loan</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="26" t="str">
+        <f>VLOOKUP(A122,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="26" t="str">
+        <f>VLOOKUP(A123,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="26" t="str">
+        <f>VLOOKUP(A124,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of credit inquiries in past 12 months</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="26" t="str">
+        <f>VLOOKUP(A125,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of personal finance inquiries</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="26" t="str">
+        <f>VLOOKUP(A126,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" s="26" t="str">
+        <f>VLOOKUP(A127,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="26" t="str">
+        <f>VLOOKUP(A128,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="26" t="str">
+        <f>VLOOKUP(A129,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>LC assigned loan grade</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="26" t="str">
+        <f>VLOOKUP(A130,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="26" t="str">
+        <f>VLOOKUP(A131,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="26" t="str">
+        <f>VLOOKUP(A132,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The lower boundary range the borrower’s FICO at loan origination belongs to.</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="26" t="str">
+        <f>VLOOKUP(A133,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The upper boundary range the borrower’s FICO at loan origination belongs to.</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="26" t="str">
+        <f>VLOOKUP(A134,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The job title supplied by the Borrower when applying for the loan.*</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="26" t="str">
+        <f>VLOOKUP(A135,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="26" t="str">
+        <f>VLOOKUP(A136,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The month the borrower's earliest reported credit line was opened</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="26" t="str">
+        <f>VLOOKUP(A137,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>362</v>
+      </c>
+      <c r="B138" s="26" t="str">
+        <f>VLOOKUP(A138,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="26" t="str">
+        <f>VLOOKUP(A139,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Loan description provided by the borrower</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="26" t="str">
+        <f>VLOOKUP(A140,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The past-due amount owed for the accounts on which the borrower is now delinquent.</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="26" t="str">
+        <f>VLOOKUP(A141,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="26" t="str">
+        <f>VLOOKUP(A142,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of collections in 12 months excluding medical collections</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="26" t="str">
+        <f>VLOOKUP(A143,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>post charge off collection fee</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="26" t="str">
+        <f>VLOOKUP(A144,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of charge-offs within 12 months</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="26" t="str">
+        <f>VLOOKUP(A145,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Ratio of total current balance to high credit/credit limit for all bankcard accounts.</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" s="26" t="str">
+        <f>VLOOKUP(A146,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total open to buy on revolving bankcards.</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="26" t="str">
+        <f>VLOOKUP(A147,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Average current balance of all accounts</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="26" t="str">
+        <f>VLOOKUP(A148,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="26" t="str">
+        <f>VLOOKUP(A149,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Balance to credit limit on all trades</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="26" t="str">
+        <f>VLOOKUP(A150,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The state provided by the borrower in the loan application</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="26" t="str">
+        <f>VLOOKUP(A151,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of trades opened in past 24 months.</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="26" t="str">
+        <f>VLOOKUP(A152,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B152" xr:uid="{98433B6A-F0B1-47F7-9220-1FBF8BF1217D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B152">
+      <sortCondition sortBy="cellColor" ref="A1:A152" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3196,7 +3876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9BCB1-703A-4B5C-B14D-E2DDE8000827}">
   <dimension ref="A1:B280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B254" workbookViewId="0">
       <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
@@ -8064,4 +8744,911 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051187F3-BE4B-40FE-8A6E-CC2962D4D6D5}">
+  <dimension ref="A1:B111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178.88671875" style="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="B61" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B71" s="26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>307</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mia/LCDataDictionary.xlsx
+++ b/Mia/LCDataDictionary.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miazh_000\Desktop\capstone\Mia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F648FAF-E972-47AE-BB25-A61FA901C71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A5ECC2-6C69-473F-B73D-6EF56BDA47DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Capstone 2007-2018" sheetId="12" r:id="rId1"/>
-    <sheet name="Reference" sheetId="10" r:id="rId2"/>
-    <sheet name="LoanStats" sheetId="3" r:id="rId3"/>
-    <sheet name="browseNotes" sheetId="6" r:id="rId4"/>
-    <sheet name="RejectStats" sheetId="7" r:id="rId5"/>
-    <sheet name="Capstone" sheetId="8" r:id="rId6"/>
+    <sheet name="Order 2007-2018" sheetId="13" r:id="rId1"/>
+    <sheet name="Colored 2007-2018" sheetId="12" r:id="rId2"/>
+    <sheet name="Reference" sheetId="10" r:id="rId3"/>
+    <sheet name="LoanStats" sheetId="3" r:id="rId4"/>
+    <sheet name="browseNotes" sheetId="6" r:id="rId5"/>
+    <sheet name="RejectStats" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">browseNotes!$A$1:$B$89</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Capstone 2007-2018'!$A$1:$B$152</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LoanStats!$A$1:$B$129</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">RejectStats!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">browseNotes!$A$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Colored 2007-2018'!$A$1:$B$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">LoanStats!$A$1:$B$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Order 2007-2018'!$A$1:$B$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="398">
   <si>
     <t>id</t>
   </si>
@@ -1212,9 +1214,6 @@
   </si>
   <si>
     <t>verification_status_joint</t>
-  </si>
-  <si>
-    <t>open_il_6m</t>
   </si>
   <si>
     <t>total_rev_hi_lim</t>
@@ -1445,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1633,12 +1632,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1658,6 +1651,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,7 +1914,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1958,6 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2053,136 +2059,7 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF31869B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF31869B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFABF8F"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB1A0C7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF31869B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF31869B"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2481,11 +2358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD8CDC-4AFC-4F42-B1EF-253791416A04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D67812-7025-449B-AAC6-F5B5BA0859F0}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,861 +2373,861 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" s="26" t="e">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="str">
         <f>VLOOKUP(A2,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>A unique LC assigned ID for the loan listing.</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="B3" s="26" t="e">
+      <c r="A3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="26" t="str">
         <f>VLOOKUP(A3,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>A unique LC assigned Id for the borrower member.</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>336</v>
+      <c r="A4" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="26" t="str">
         <f>VLOOKUP(A4,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v xml:space="preserve"> Number of currently active installment trades at time of application for the secondary applicant</v>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="26" t="e">
+      <c r="A5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="str">
         <f>VLOOKUP(A5,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The total amount committed to that loan at that point in time.</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B6" s="26" t="e">
+      <c r="A6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="str">
         <f>VLOOKUP(A6,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="26" t="e">
+      <c r="A7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="26" t="str">
         <f>VLOOKUP(A7,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>392</v>
-      </c>
-      <c r="B8" s="26" t="e">
+      <c r="A8" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="str">
         <f>VLOOKUP(A8,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Interest Rate on the loan</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="B9" s="26" t="e">
+      <c r="A9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="str">
         <f>VLOOKUP(A9,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B10" s="26" t="e">
+      <c r="A10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="str">
         <f>VLOOKUP(A10,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>LC assigned loan grade</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B11" s="26" t="e">
+      <c r="A11" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="str">
         <f>VLOOKUP(A11,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>LC assigned loan subgrade</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="B12" s="26" t="e">
+      <c r="A12" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="26" t="str">
         <f>VLOOKUP(A12,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The job title supplied by the Borrower when applying for the loan.*</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="B13" s="26" t="e">
+      <c r="A13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="str">
         <f>VLOOKUP(A13,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="B14" s="26" t="e">
+      <c r="A14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="str">
         <f>VLOOKUP(A14,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="B15" s="26" t="e">
+      <c r="A15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="str">
         <f>VLOOKUP(A15,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>255</v>
+      <c r="A16" s="32" t="s">
+        <v>294</v>
       </c>
       <c r="B16" s="26" t="str">
         <f>VLOOKUP(A16,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>252</v>
+      <c r="A17" s="32" t="s">
+        <v>13</v>
       </c>
       <c r="B17" s="26" t="str">
         <f>VLOOKUP(A17,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
+        <v>The month which the loan was funded</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>254</v>
+      <c r="A18" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="26" t="str">
         <f>VLOOKUP(A18,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
+        <v>Current status of the loan</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>355</v>
+      <c r="A19" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="26" t="str">
         <f>VLOOKUP(A19,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The day the first hardship plan payment is due. For example, if a borrower has a hardship plan period of 3 months, the start date is the start of the three-month period in which the borrower is allowed to make interest-only payments.</v>
+        <v>Indicates if a payment plan has been put in place for the loan</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>359</v>
+      <c r="A20" s="32" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="26" t="str">
         <f>VLOOKUP(A20,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The original projected additional interest amount that will accrue for the given hardship payment plan as of the Hardship Start Date. This field will be null if the borrower has broken their hardship payment plan.</v>
+        <v>URL for the LC page with listing data.</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>348</v>
+      <c r="A21" s="32" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="26" t="str">
         <f>VLOOKUP(A21,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Describes the hardship plan offering</v>
+        <v>Loan description provided by the borrower</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>350</v>
+      <c r="A22" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="26" t="str">
         <f>VLOOKUP(A22,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Describes if the hardship plan is active, pending, canceled, completed, or broken</v>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>353</v>
+      <c r="A23" s="32" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="26" t="str">
         <f>VLOOKUP(A23,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The start date of the hardship plan period</v>
+        <v>The loan title provided by the borrower</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>349</v>
+      <c r="A24" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="B24" s="26" t="str">
         <f>VLOOKUP(A24,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Describes the reason the hardship plan was offered</v>
+        <v>The first 3 numbers of the zip code provided by the borrower in the loan application.</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>360</v>
+      <c r="A25" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="26" t="str">
         <f>VLOOKUP(A25,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The payoff balance amount as of the hardship plan start date</v>
+        <v>The state provided by the borrower in the loan application</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>358</v>
+      <c r="A26" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="26" t="str">
         <f>VLOOKUP(A26,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Loan Status as of the hardship plan start date</v>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>356</v>
+      <c r="A27" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B27" s="26" t="str">
         <f>VLOOKUP(A27,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of months the borrower will make smaller payments than normally obligated due to a hardship plan</v>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>361</v>
+      <c r="A28" s="32" t="s">
+        <v>23</v>
       </c>
       <c r="B28" s="26" t="str">
         <f>VLOOKUP(A28,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The last payment amount as of the hardship plan start date</v>
+        <v>The month the borrower's earliest reported credit line was opened</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>347</v>
+      <c r="A29" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="26" t="str">
         <f>VLOOKUP(A29,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Flags whether or not the borrower is on a hardship plan</v>
+        <v>The lower boundary range the borrower’s FICO at loan origination belongs to.</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>354</v>
+      <c r="A30" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="B30" s="26" t="str">
         <f>VLOOKUP(A30,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The end date of the hardship plan period</v>
+        <v>The upper boundary range the borrower’s FICO at loan origination belongs to.</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>357</v>
+      <c r="A31" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B31" s="26" t="str">
         <f>VLOOKUP(A31,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Account days past due as of the hardship plan start date</v>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>352</v>
+      <c r="A32" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="B32" s="26" t="str">
         <f>VLOOKUP(A32,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The interest payment that the borrower has committed to make each month while they are on a hardship plan</v>
+        <v>The number of months since the borrower's last delinquency.</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>351</v>
+      <c r="A33" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B33" s="26" t="str">
         <f>VLOOKUP(A33,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Amount of months that the borrower is expected to pay less than the contractual monthly payment amount due to a hardship plan</v>
+        <v>The number of months since the last public record.</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>366</v>
+      <c r="A34" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="B34" s="26" t="str">
         <f>VLOOKUP(A34,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of months that the borrower will be on the settlement plan</v>
+        <v>The number of open credit lines in the borrower's credit file.</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
-        <v>363</v>
+      <c r="A35" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B35" s="26" t="str">
         <f>VLOOKUP(A35,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The status of the borrower’s settlement plan. Possible values are: COMPLETE, ACTIVE, BROKEN, CANCELLED, DENIED, DRAFT</v>
+        <v>Number of derogatory public records</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
-        <v>365</v>
+      <c r="A36" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="B36" s="26" t="str">
         <f>VLOOKUP(A36,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The settlement amount as a percentage of the payoff balance amount on the loan</v>
+        <v>Total credit revolving balance</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>340</v>
+      <c r="A37" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="B37" s="26" t="str">
         <f>VLOOKUP(A37,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The date that the borrower agrees to the settlement plan</v>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>364</v>
+      <c r="A38" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="B38" s="26" t="str">
         <f>VLOOKUP(A38,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The loan amount that the borrower has agreed to settle for</v>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
-        <v>346</v>
+      <c r="A39" t="s">
+        <v>34</v>
       </c>
       <c r="B39" s="26" t="str">
         <f>VLOOKUP(A39,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The most recent date that the Debt_Settlement_Flag has been set  </v>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="28" t="s">
-        <v>345</v>
+      <c r="A40" t="s">
+        <v>35</v>
       </c>
       <c r="B40" s="26" t="str">
         <f>VLOOKUP(A40,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Flags whether or not the borrower, who has charged-off, is working with a debt-settlement company.</v>
+        <v>Remaining outstanding principal for total amount funded</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>16</v>
+      <c r="A41" t="s">
+        <v>36</v>
       </c>
       <c r="B41" s="26" t="str">
         <f>VLOOKUP(A41,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>URL for the LC page with listing data.</v>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>1</v>
+      <c r="A42" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="26" t="str">
         <f>VLOOKUP(A42,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>A unique LC assigned Id for the borrower member.</v>
+        <v>Payments received to date for total amount funded</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>0</v>
+      <c r="A43" t="s">
+        <v>38</v>
       </c>
       <c r="B43" s="26" t="str">
         <f>VLOOKUP(A43,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>A unique LC assigned ID for the loan listing.</v>
+        <v>Payments received to date for portion of total amount funded by investors</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="B44" s="26" t="str">
         <f>VLOOKUP(A44,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The first 3 numbers of the zip code provided by the borrower in the loan application.</v>
+        <v>Principal received to date</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>40</v>
       </c>
       <c r="B45" s="26" t="str">
         <f>VLOOKUP(A45,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
+        <v>Interest received to date</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>385</v>
-      </c>
-      <c r="B46" s="26" t="e">
+        <v>41</v>
+      </c>
+      <c r="B46" s="26" t="str">
         <f>VLOOKUP(A46,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Late fees received to date</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="B47" s="26" t="str">
         <f>VLOOKUP(A47,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Principal received to date</v>
+        <v>post charge off gross recovery</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="B48" s="26" t="str">
         <f>VLOOKUP(A48,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Late fees received to date</v>
+        <v>post charge off collection fee</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B49" s="26" t="str">
         <f>VLOOKUP(A49,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Interest received to date</v>
+        <v>Last month payment was received</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B50" s="26" t="str">
         <f>VLOOKUP(A50,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Payments received to date for portion of total amount funded by investors</v>
+        <v>Last total payment amount received</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B51" s="26" t="str">
         <f>VLOOKUP(A51,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Payments received to date for total amount funded</v>
+        <v>Next scheduled payment date</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B52" s="26" t="str">
         <f>VLOOKUP(A52,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total installment high credit/credit limit</v>
+        <v>The most recent month LC pulled credit for this loan</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="B53" s="26" t="str">
         <f>VLOOKUP(A53,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of finance trades</v>
+        <v>The upper boundary range the borrower’s last FICO pulled belongs to.</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>308</v>
+        <v>47</v>
       </c>
       <c r="B54" s="26" t="str">
         <f>VLOOKUP(A54,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total bankcard high credit/credit limit</v>
+        <v>The lower boundary range the borrower’s last FICO pulled belongs to.</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="B55" s="26" t="str">
         <f>VLOOKUP(A55,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total current balance of all installment accounts</v>
+        <v>Number of collections in 12 months excluding medical collections</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="B56" s="26" t="str">
         <f>VLOOKUP(A56,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total credit balance excluding mortgage</v>
+        <v>Months since most recent 90-day or worse rating</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B57" s="26" t="str">
         <f>VLOOKUP(A57,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The total number of credit lines currently in the borrower's credit file</v>
+        <v>publicly available policy_code=1
+new products not publicly available policy_code=2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>112</v>
+      <c r="A58" s="29" t="s">
+        <v>252</v>
       </c>
       <c r="B58" s="26" t="str">
         <f>VLOOKUP(A58,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total high credit/credit limit</v>
+        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>113</v>
+      <c r="A59" s="29" t="s">
+        <v>254</v>
       </c>
       <c r="B59" s="26" t="str">
         <f>VLOOKUP(A59,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total current balance of all accounts</v>
+        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>128</v>
+      <c r="A60" s="29" t="s">
+        <v>255</v>
       </c>
       <c r="B60" s="26" t="str">
         <f>VLOOKUP(A60,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total collection amounts ever owed</v>
+        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" s="26" t="str">
+      <c r="A61" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="26" t="e">
         <f>VLOOKUP(A61,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The loan title provided by the borrower</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>5</v>
+      <c r="A62" s="32" t="s">
+        <v>291</v>
       </c>
       <c r="B62" s="26" t="str">
         <f>VLOOKUP(A62,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>107</v>
+      <c r="A63" s="32" t="s">
+        <v>128</v>
       </c>
       <c r="B63" s="26" t="str">
         <f>VLOOKUP(A63,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of tax liens</v>
+        <v>Total collection amounts ever owed</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>9</v>
+      <c r="A64" s="32" t="s">
+        <v>113</v>
       </c>
       <c r="B64" s="26" t="str">
         <f>VLOOKUP(A64,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>LC assigned loan subgrade</v>
+        <v>Total current balance of all accounts</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>32</v>
+      <c r="A65" s="32" t="s">
+        <v>266</v>
       </c>
       <c r="B65" s="26" t="str">
         <f>VLOOKUP(A65,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+        <v>Number of open trades in last 6 months</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>31</v>
+      <c r="A66" s="32" t="s">
+        <v>335</v>
       </c>
       <c r="B66" s="26" t="str">
         <f>VLOOKUP(A66,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total credit revolving balance</v>
+        <v>Number of currently active installment trades</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>225</v>
+      <c r="A67" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="B67" s="26" t="str">
         <f>VLOOKUP(A67,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>post charge off gross recovery</v>
+        <v>Number of installment accounts opened in past 12 months</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>15</v>
+      <c r="A68" s="32" t="s">
+        <v>271</v>
       </c>
       <c r="B68" s="26" t="str">
         <f>VLOOKUP(A68,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Indicates if a payment plan has been put in place for the loan</v>
+        <v>Number of installment accounts opened in past 24 months</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>18</v>
+      <c r="A69" s="32" t="s">
+        <v>273</v>
       </c>
       <c r="B69" s="26" t="str">
         <f>VLOOKUP(A69,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+        <v>Months since most recent installment accounts opened</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>103</v>
+      <c r="A70" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="B70" s="26" t="str">
         <f>VLOOKUP(A70,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of public record bankruptcies</v>
+        <v>Total current balance of all installment accounts</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>30</v>
+      <c r="A71" s="32" t="s">
+        <v>277</v>
       </c>
       <c r="B71" s="26" t="str">
         <f>VLOOKUP(A71,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of derogatory public records</v>
+        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>129</v>
+      <c r="A72" s="32" t="s">
+        <v>279</v>
       </c>
       <c r="B72" s="26" t="str">
         <f>VLOOKUP(A72,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>publicly available policy_code=1
-new products not publicly available policy_code=2</v>
+        <v>Number of revolving trades opened in past 12 months</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>306</v>
+      <c r="A73" s="32" t="s">
+        <v>281</v>
       </c>
       <c r="B73" s="26" t="str">
         <f>VLOOKUP(A73,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Percentage of all bankcard accounts &gt; 75% of limit.</v>
+        <v>Number of revolving trades opened in past 24 months</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>118</v>
+      <c r="A74" s="32" t="s">
+        <v>283</v>
       </c>
       <c r="B74" s="26" t="str">
         <f>VLOOKUP(A74,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Percent of trades never delinquent</v>
+        <v>Maximum current balance owed on all revolving accounts</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>36</v>
+      <c r="A75" s="32" t="s">
+        <v>285</v>
       </c>
       <c r="B75" s="26" t="str">
         <f>VLOOKUP(A75,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+        <v>Balance to credit limit on all trades</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="26" t="str">
+      <c r="A76" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="26" t="e">
         <f>VLOOKUP(A76,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Remaining outstanding principal for total amount funded</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>281</v>
+      <c r="A77" s="32" t="s">
+        <v>287</v>
       </c>
       <c r="B77" s="26" t="str">
         <f>VLOOKUP(A77,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of revolving trades opened in past 24 months</v>
+        <v>Number of personal finance inquiries</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>279</v>
+      <c r="A78" s="32" t="s">
+        <v>293</v>
       </c>
       <c r="B78" s="26" t="str">
         <f>VLOOKUP(A78,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of revolving trades opened in past 12 months</v>
+        <v>Number of finance trades</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>271</v>
+      <c r="A79" s="32" t="s">
+        <v>289</v>
       </c>
       <c r="B79" s="26" t="str">
         <f>VLOOKUP(A79,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of installment accounts opened in past 24 months</v>
+        <v>Number of credit inquiries in past 12 months</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>269</v>
+      <c r="A80" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="B80" s="26" t="str">
         <f>VLOOKUP(A80,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of installment accounts opened in past 12 months</v>
+        <v>Number of trades opened in past 24 months.</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>335</v>
+      <c r="A81" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="B81" s="26" t="str">
         <f>VLOOKUP(A81,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of currently active installment trades</v>
+        <v>Average current balance of all accounts</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>266</v>
+      <c r="A82" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="B82" s="26" t="str">
         <f>VLOOKUP(A82,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of open trades in last 6 months</v>
+        <v>Total open to buy on revolving bankcards.</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>29</v>
+      <c r="A83" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="B83" s="26" t="str">
         <f>VLOOKUP(A83,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of open credit lines in the borrower's credit file.</v>
+        <v>Ratio of total current balance to high credit/credit limit for all bankcard accounts.</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>110</v>
+      <c r="A84" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="B84" s="26" t="str">
         <f>VLOOKUP(A84,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of accounts opened in past 12 months</v>
+        <v>Number of charge-offs within 12 months</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>119</v>
+      <c r="A85" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="B85" s="26" t="str">
         <f>VLOOKUP(A85,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of accounts 90 or more days past due in last 24 months</v>
+        <v>The past-due amount owed for the accounts on which the borrower is now delinquent.</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>120</v>
+      <c r="A86" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="B86" s="26" t="str">
         <f>VLOOKUP(A86,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of accounts currently 30 days past due (updated in past 2 months)</v>
+        <v>Months since oldest bank installment account opened</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>121</v>
+      <c r="A87" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="B87" s="26" t="str">
         <f>VLOOKUP(A87,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of accounts currently 120 days past due (updated in past 2 months)</v>
+        <v>Months since oldest revolving account opened</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>109</v>
+      <c r="A88" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="B88" s="26" t="str">
         <f>VLOOKUP(A88,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of satisfactory accounts</v>
+        <v>Months since most recent revolving account opened</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>126</v>
+      <c r="A89" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="B89" s="26" t="str">
         <f>VLOOKUP(A89,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of revolving trades with balance &gt;0</v>
+        <v>Months since most recent account opened</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>102</v>
+      <c r="A90" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="B90" s="26" t="str">
         <f>VLOOKUP(A90,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of revolving accounts</v>
+        <v>Number of mortgage accounts.</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>127</v>
+      <c r="A91" s="32" t="s">
+        <v>301</v>
       </c>
       <c r="B91" s="26" t="str">
         <f>VLOOKUP(A91,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of open revolving accounts</v>
+        <v>Months since most recent bankcard account opened.</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>122</v>
+      <c r="A92" s="32" t="s">
+        <v>302</v>
       </c>
       <c r="B92" s="26" t="str">
         <f>VLOOKUP(A92,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of installment accounts</v>
+        <v>Months since most recent bankcard delinquency</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>115</v>
+      <c r="A93" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="B93" s="26" t="str">
         <f>VLOOKUP(A93,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of bankcard accounts</v>
+        <v>Months since most recent inquiry.</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>117</v>
+      <c r="A94" s="32" t="s">
+        <v>305</v>
       </c>
       <c r="B94" s="26" t="str">
         <f>VLOOKUP(A94,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of satisfactory bankcard accounts</v>
+        <v>Months since most recent revolving delinquency.</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>123</v>
+      <c r="A95" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="B95" s="26" t="str">
         <f>VLOOKUP(A95,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of currently active revolving trades</v>
+        <v>Number of accounts ever 120 or more days past due</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="26" t="str">
@@ -3359,520 +3236,1904 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>104</v>
+      <c r="A97" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="B97" s="26" t="str">
         <f>VLOOKUP(A97,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of accounts ever 120 or more days past due</v>
+        <v>Number of currently active revolving trades</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>44</v>
+      <c r="A98" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="B98" s="26" t="str">
         <f>VLOOKUP(A98,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Next scheduled payment date</v>
+        <v>Number of satisfactory bankcard accounts</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>305</v>
+      <c r="A99" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="B99" s="26" t="str">
         <f>VLOOKUP(A99,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent revolving delinquency.</v>
+        <v>Number of bankcard accounts</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>304</v>
+      <c r="A100" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="B100" s="26" t="str">
         <f>VLOOKUP(A100,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent inquiry.</v>
+        <v>Number of installment accounts</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>302</v>
+      <c r="A101" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="B101" s="26" t="str">
         <f>VLOOKUP(A101,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent bankcard delinquency</v>
+        <v>Number of open revolving accounts</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>301</v>
+      <c r="A102" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="B102" s="26" t="str">
         <f>VLOOKUP(A102,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent bankcard account opened.</v>
+        <v>Number of revolving accounts</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>273</v>
+      <c r="A103" s="32" t="s">
+        <v>126</v>
       </c>
       <c r="B103" s="26" t="str">
         <f>VLOOKUP(A103,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent installment accounts opened</v>
+        <v>Number of revolving trades with balance &gt;0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>28</v>
+      <c r="A104" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="B104" s="26" t="str">
         <f>VLOOKUP(A104,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of months since the last public record.</v>
+        <v>Number of satisfactory accounts</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>108</v>
+      <c r="A105" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="B105" s="26" t="str">
         <f>VLOOKUP(A105,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent 90-day or worse rating</v>
+        <v>Number of accounts currently 120 days past due (updated in past 2 months)</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>27</v>
+      <c r="A106" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="B106" s="26" t="str">
         <f>VLOOKUP(A106,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of months since the borrower's last delinquency.</v>
+        <v>Number of accounts currently 30 days past due (updated in past 2 months)</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>300</v>
+      <c r="A107" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="B107" s="26" t="str">
         <f>VLOOKUP(A107,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of mortgage accounts.</v>
+        <v>Number of accounts 90 or more days past due in last 24 months</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>111</v>
+      <c r="A108" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="B108" s="26" t="str">
         <f>VLOOKUP(A108,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent account opened</v>
+        <v>Number of accounts opened in past 12 months</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>125</v>
+      <c r="A109" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="B109" s="26" t="str">
         <f>VLOOKUP(A109,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since most recent revolving account opened</v>
+        <v>Percent of trades never delinquent</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>124</v>
+      <c r="A110" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="B110" s="26" t="str">
         <f>VLOOKUP(A110,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since oldest revolving account opened</v>
+        <v>Percentage of all bankcard accounts &gt; 75% of limit.</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>299</v>
+      <c r="A111" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="B111" s="26" t="str">
         <f>VLOOKUP(A111,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Months since oldest bank installment account opened</v>
+        <v>Number of public record bankruptcies</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>283</v>
+      <c r="A112" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="B112" s="26" t="str">
         <f>VLOOKUP(A112,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Maximum current balance owed on all revolving accounts</v>
+        <v>Number of tax liens</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>14</v>
+      <c r="A113" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="B113" s="26" t="str">
         <f>VLOOKUP(A113,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Current status of the loan</v>
+        <v>Total high credit/credit limit</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>2</v>
+      <c r="A114" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="B114" s="26" t="str">
         <f>VLOOKUP(A114,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+        <v>Total credit balance excluding mortgage</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>42</v>
+      <c r="A115" s="32" t="s">
+        <v>308</v>
       </c>
       <c r="B115" s="26" t="str">
         <f>VLOOKUP(A115,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Last month payment was received</v>
+        <v>Total bankcard high credit/credit limit</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>43</v>
+      <c r="A116" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="B116" s="26" t="str">
         <f>VLOOKUP(A116,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Last total payment amount received</v>
+        <v>Total installment high credit/credit limit</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>47</v>
-      </c>
-      <c r="B117" s="26" t="str">
+      <c r="A117" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="26" t="e">
         <f>VLOOKUP(A117,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The lower boundary range the borrower’s last FICO pulled belongs to.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="26" t="str">
+      <c r="A118" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="26" t="e">
         <f>VLOOKUP(A118,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The upper boundary range the borrower’s last FICO pulled belongs to.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" s="26" t="str">
+      <c r="A119" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="26" t="e">
         <f>VLOOKUP(A119,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The most recent month LC pulled credit for this loan</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" s="26" t="str">
+      <c r="A120" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="26" t="e">
         <f>VLOOKUP(A120,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The month which the loan was funded</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="26" t="str">
+      <c r="A121" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" s="26" t="e">
         <f>VLOOKUP(A121,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Interest Rate on the loan</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="26" t="str">
+      <c r="A122" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" s="26" t="e">
         <f>VLOOKUP(A122,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The monthly payment owed by the borrower if the loan originates.</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="26" t="str">
+      <c r="A123" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B123" s="26" t="e">
         <f>VLOOKUP(A123,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>289</v>
-      </c>
-      <c r="B124" s="26" t="str">
+      <c r="A124" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" s="26" t="e">
         <f>VLOOKUP(A124,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of credit inquiries in past 12 months</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>287</v>
+      <c r="A125" s="29" t="s">
+        <v>336</v>
       </c>
       <c r="B125" s="26" t="str">
         <f>VLOOKUP(A125,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of personal finance inquiries</v>
+        <v xml:space="preserve"> Number of currently active installment trades at time of application for the secondary applicant</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="26" t="str">
+      <c r="A126" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B126" s="26" t="e">
         <f>VLOOKUP(A126,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The initial listing status of the loan. Possible values are – W, F</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>277</v>
-      </c>
-      <c r="B127" s="26" t="str">
+      <c r="A127" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B127" s="26" t="e">
         <f>VLOOKUP(A127,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="26" t="str">
+      <c r="A128" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="26" t="e">
         <f>VLOOKUP(A128,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="26" t="str">
+      <c r="A129" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" s="26" t="e">
         <f>VLOOKUP(A129,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>LC assigned loan grade</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>4</v>
+      <c r="A130" s="28" t="s">
+        <v>347</v>
       </c>
       <c r="B130" s="26" t="str">
         <f>VLOOKUP(A130,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The total amount committed by investors for that loan at that point in time.</v>
+        <v>Flags whether or not the borrower is on a hardship plan</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>3</v>
+      <c r="A131" s="28" t="s">
+        <v>348</v>
       </c>
       <c r="B131" s="26" t="str">
         <f>VLOOKUP(A131,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The total amount committed to that loan at that point in time.</v>
+        <v>Describes the hardship plan offering</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>24</v>
+      <c r="A132" s="28" t="s">
+        <v>349</v>
       </c>
       <c r="B132" s="26" t="str">
         <f>VLOOKUP(A132,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The lower boundary range the borrower’s FICO at loan origination belongs to.</v>
+        <v>Describes the reason the hardship plan was offered</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>25</v>
+      <c r="A133" s="28" t="s">
+        <v>350</v>
       </c>
       <c r="B133" s="26" t="str">
         <f>VLOOKUP(A133,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The upper boundary range the borrower’s FICO at loan origination belongs to.</v>
+        <v>Describes if the hardship plan is active, pending, canceled, completed, or broken</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>166</v>
+      <c r="A134" s="28" t="s">
+        <v>351</v>
       </c>
       <c r="B134" s="26" t="str">
         <f>VLOOKUP(A134,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The job title supplied by the Borrower when applying for the loan.*</v>
+        <v>Amount of months that the borrower is expected to pay less than the contractual monthly payment amount due to a hardship plan</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>10</v>
+      <c r="A135" s="28" t="s">
+        <v>352</v>
       </c>
       <c r="B135" s="26" t="str">
         <f>VLOOKUP(A135,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+        <v>The interest payment that the borrower has committed to make each month while they are on a hardship plan</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>23</v>
+      <c r="A136" s="28" t="s">
+        <v>353</v>
       </c>
       <c r="B136" s="26" t="str">
         <f>VLOOKUP(A136,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The month the borrower's earliest reported credit line was opened</v>
+        <v>The start date of the hardship plan period</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>21</v>
+      <c r="A137" s="28" t="s">
+        <v>354</v>
       </c>
       <c r="B137" s="26" t="str">
         <f>VLOOKUP(A137,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+        <v>The end date of the hardship plan period</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>362</v>
+      <c r="A138" s="28" t="s">
+        <v>355</v>
       </c>
       <c r="B138" s="26" t="str">
         <f>VLOOKUP(A138,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</v>
+        <v>The day the first hardship plan payment is due. For example, if a borrower has a hardship plan period of 3 months, the start date is the start of the three-month period in which the borrower is allowed to make interest-only payments.</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>17</v>
+      <c r="A139" s="28" t="s">
+        <v>356</v>
       </c>
       <c r="B139" s="26" t="str">
         <f>VLOOKUP(A139,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Loan description provided by the borrower</v>
+        <v>The number of months the borrower will make smaller payments than normally obligated due to a hardship plan</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>298</v>
+      <c r="A140" s="28" t="s">
+        <v>357</v>
       </c>
       <c r="B140" s="26" t="str">
         <f>VLOOKUP(A140,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The past-due amount owed for the accounts on which the borrower is now delinquent.</v>
+        <v>Account days past due as of the hardship plan start date</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>22</v>
+      <c r="A141" s="28" t="s">
+        <v>358</v>
       </c>
       <c r="B141" s="26" t="str">
         <f>VLOOKUP(A141,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+        <v>Loan Status as of the hardship plan start date</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>106</v>
+      <c r="A142" s="28" t="s">
+        <v>359</v>
       </c>
       <c r="B142" s="26" t="str">
         <f>VLOOKUP(A142,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of collections in 12 months excluding medical collections</v>
+        <v>The original projected additional interest amount that will accrue for the given hardship payment plan as of the Hardship Start Date. This field will be null if the borrower has broken their hardship payment plan.</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>226</v>
+      <c r="A143" s="28" t="s">
+        <v>360</v>
       </c>
       <c r="B143" s="26" t="str">
         <f>VLOOKUP(A143,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>post charge off collection fee</v>
+        <v>The payoff balance amount as of the hardship plan start date</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>105</v>
+      <c r="A144" s="28" t="s">
+        <v>361</v>
       </c>
       <c r="B144" s="26" t="str">
         <f>VLOOKUP(A144,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of charge-offs within 12 months</v>
+        <v>The last payment amount as of the hardship plan start date</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="B145" s="26" t="str">
         <f>VLOOKUP(A145,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Ratio of total current balance to high credit/credit limit for all bankcard accounts.</v>
+        <v>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>296</v>
+      <c r="A146" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="B146" s="26" t="str">
         <f>VLOOKUP(A146,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Total open to buy on revolving bankcards.</v>
+        <v>Flags whether or not the borrower, who has charged-off, is working with a debt-settlement company.</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>114</v>
+      <c r="A147" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="B147" s="26" t="str">
         <f>VLOOKUP(A147,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Average current balance of all accounts</v>
+        <v>The most recent date that the Debt_Settlement_Flag has been set  </v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>12</v>
+      <c r="A148" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="B148" s="26" t="str">
         <f>VLOOKUP(A148,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The self-reported annual income provided by the borrower during registration.</v>
+        <v>The status of the borrower’s settlement plan. Possible values are: COMPLETE, ACTIVE, BROKEN, CANCELLED, DENIED, DRAFT</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>285</v>
+      <c r="A149" s="31" t="s">
+        <v>340</v>
       </c>
       <c r="B149" s="26" t="str">
         <f>VLOOKUP(A149,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Balance to credit limit on all trades</v>
+        <v>The date that the borrower agrees to the settlement plan</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>20</v>
+      <c r="A150" s="31" t="s">
+        <v>364</v>
       </c>
       <c r="B150" s="26" t="str">
         <f>VLOOKUP(A150,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The state provided by the borrower in the loan application</v>
+        <v>The loan amount that the borrower has agreed to settle for</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>295</v>
+      <c r="A151" s="31" t="s">
+        <v>365</v>
       </c>
       <c r="B151" s="26" t="str">
         <f>VLOOKUP(A151,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>Number of trades opened in past 24 months.</v>
+        <v>The settlement amount as a percentage of the payoff balance amount on the loan</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>291</v>
+      <c r="A152" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="B152" s="26" t="str">
         <f>VLOOKUP(A152,Reference!$A$1:$B$280,2,FALSE)</f>
-        <v>The number of accounts on which the borrower is now delinquent.</v>
+        <v>The number of months that the borrower will be on the settlement plan</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B152" xr:uid="{98433B6A-F0B1-47F7-9220-1FBF8BF1217D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B152">
-      <sortCondition sortBy="cellColor" ref="A1:A152" dxfId="1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:B152" xr:uid="{98433B6A-F0B1-47F7-9220-1FBF8BF1217D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BD8CDC-4AFC-4F42-B1EF-253791416A04}">
+  <dimension ref="A1:B152"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.44140625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="26" t="e">
+        <f>VLOOKUP(A2,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="26" t="e">
+        <f>VLOOKUP(A3,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" s="26" t="str">
+        <f>VLOOKUP(A4,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve"> Number of currently active installment trades at time of application for the secondary applicant</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" s="26" t="e">
+        <f>VLOOKUP(A5,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="26" t="e">
+        <f>VLOOKUP(A6,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="26" t="e">
+        <f>VLOOKUP(A7,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="26" t="e">
+        <f>VLOOKUP(A8,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="26" t="e">
+        <f>VLOOKUP(A9,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="26" t="e">
+        <f>VLOOKUP(A10,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="26" t="e">
+        <f>VLOOKUP(A11,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="B12" s="26" t="e">
+        <f>VLOOKUP(A12,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="B13" s="26" t="e">
+        <f>VLOOKUP(A13,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="26" t="e">
+        <f>VLOOKUP(A14,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="26" t="e">
+        <f>VLOOKUP(A15,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="26" t="str">
+        <f>VLOOKUP(A16,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="26" t="str">
+        <f>VLOOKUP(A17,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="26" t="str">
+        <f>VLOOKUP(A18,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="26" t="str">
+        <f>VLOOKUP(A19,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The day the first hardship plan payment is due. For example, if a borrower has a hardship plan period of 3 months, the start date is the start of the three-month period in which the borrower is allowed to make interest-only payments.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="26" t="str">
+        <f>VLOOKUP(A20,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The original projected additional interest amount that will accrue for the given hardship payment plan as of the Hardship Start Date. This field will be null if the borrower has broken their hardship payment plan.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="26" t="str">
+        <f>VLOOKUP(A21,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes the hardship plan offering</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B22" s="26" t="str">
+        <f>VLOOKUP(A22,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes if the hardship plan is active, pending, canceled, completed, or broken</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="26" t="str">
+        <f>VLOOKUP(A23,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The start date of the hardship plan period</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="26" t="str">
+        <f>VLOOKUP(A24,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Describes the reason the hardship plan was offered</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="26" t="str">
+        <f>VLOOKUP(A25,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The payoff balance amount as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="26" t="str">
+        <f>VLOOKUP(A26,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Loan Status as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="26" t="str">
+        <f>VLOOKUP(A27,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months the borrower will make smaller payments than normally obligated due to a hardship plan</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="26" t="str">
+        <f>VLOOKUP(A28,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The last payment amount as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" s="26" t="str">
+        <f>VLOOKUP(A29,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Flags whether or not the borrower is on a hardship plan</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="26" t="str">
+        <f>VLOOKUP(A30,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The end date of the hardship plan period</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="26" t="str">
+        <f>VLOOKUP(A31,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Account days past due as of the hardship plan start date</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" s="26" t="str">
+        <f>VLOOKUP(A32,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The interest payment that the borrower has committed to make each month while they are on a hardship plan</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B33" s="26" t="str">
+        <f>VLOOKUP(A33,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Amount of months that the borrower is expected to pay less than the contractual monthly payment amount due to a hardship plan</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="26" t="str">
+        <f>VLOOKUP(A34,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months that the borrower will be on the settlement plan</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="B35" s="26" t="str">
+        <f>VLOOKUP(A35,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The status of the borrower’s settlement plan. Possible values are: COMPLETE, ACTIVE, BROKEN, CANCELLED, DENIED, DRAFT</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="B36" s="26" t="str">
+        <f>VLOOKUP(A36,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The settlement amount as a percentage of the payoff balance amount on the loan</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="26" t="str">
+        <f>VLOOKUP(A37,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The date that the borrower agrees to the settlement plan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" s="26" t="str">
+        <f>VLOOKUP(A38,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The loan amount that the borrower has agreed to settle for</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="26" t="str">
+        <f>VLOOKUP(A39,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The most recent date that the Debt_Settlement_Flag has been set  </v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="26" t="str">
+        <f>VLOOKUP(A40,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Flags whether or not the borrower, who has charged-off, is working with a debt-settlement company.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="26" t="str">
+        <f>VLOOKUP(A41,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>URL for the LC page with listing data.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="26" t="str">
+        <f>VLOOKUP(A42,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A unique LC assigned Id for the borrower member.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="26" t="str">
+        <f>VLOOKUP(A43,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A unique LC assigned ID for the loan listing.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="26" t="str">
+        <f>VLOOKUP(A44,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The first 3 numbers of the zip code provided by the borrower in the loan application.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B45" s="26" t="str">
+        <f>VLOOKUP(A45,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="26" t="e">
+        <f>VLOOKUP(A46,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="26" t="str">
+        <f>VLOOKUP(A47,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Principal received to date</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="26" t="str">
+        <f>VLOOKUP(A48,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Late fees received to date</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="26" t="str">
+        <f>VLOOKUP(A49,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Interest received to date</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="26" t="str">
+        <f>VLOOKUP(A50,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Payments received to date for portion of total amount funded by investors</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="26" t="str">
+        <f>VLOOKUP(A51,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Payments received to date for total amount funded</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="26" t="str">
+        <f>VLOOKUP(A52,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total installment high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="26" t="str">
+        <f>VLOOKUP(A53,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of finance trades</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>308</v>
+      </c>
+      <c r="B54" s="26" t="str">
+        <f>VLOOKUP(A54,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total bankcard high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="26" t="str">
+        <f>VLOOKUP(A55,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total current balance of all installment accounts</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="26" t="str">
+        <f>VLOOKUP(A56,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total credit balance excluding mortgage</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="26" t="str">
+        <f>VLOOKUP(A57,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="26" t="str">
+        <f>VLOOKUP(A58,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total high credit/credit limit</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="26" t="str">
+        <f>VLOOKUP(A59,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total current balance of all accounts</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="26" t="str">
+        <f>VLOOKUP(A60,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total collection amounts ever owed</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="26" t="str">
+        <f>VLOOKUP(A61,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The loan title provided by the borrower</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="26" t="str">
+        <f>VLOOKUP(A62,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="26" t="str">
+        <f>VLOOKUP(A63,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of tax liens</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="26" t="str">
+        <f>VLOOKUP(A64,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>LC assigned loan subgrade</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B65" s="26" t="str">
+        <f>VLOOKUP(A65,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="26" t="str">
+        <f>VLOOKUP(A66,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total credit revolving balance</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="26" t="str">
+        <f>VLOOKUP(A67,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>post charge off gross recovery</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="26" t="str">
+        <f>VLOOKUP(A68,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Indicates if a payment plan has been put in place for the loan</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="26" t="str">
+        <f>VLOOKUP(A69,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve">A category provided by the borrower for the loan request. </v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="26" t="str">
+        <f>VLOOKUP(A70,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of public record bankruptcies</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="26" t="str">
+        <f>VLOOKUP(A71,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of derogatory public records</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="26" t="str">
+        <f>VLOOKUP(A72,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>publicly available policy_code=1
+new products not publicly available policy_code=2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>306</v>
+      </c>
+      <c r="B73" s="26" t="str">
+        <f>VLOOKUP(A73,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Percentage of all bankcard accounts &gt; 75% of limit.</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="26" t="str">
+        <f>VLOOKUP(A74,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Percent of trades never delinquent</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="26" t="str">
+        <f>VLOOKUP(A75,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="26" t="str">
+        <f>VLOOKUP(A76,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Remaining outstanding principal for total amount funded</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="26" t="str">
+        <f>VLOOKUP(A77,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="26" t="str">
+        <f>VLOOKUP(A78,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="26" t="str">
+        <f>VLOOKUP(A79,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="26" t="str">
+        <f>VLOOKUP(A80,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="26" t="str">
+        <f>VLOOKUP(A81,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active installment trades</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="26" t="str">
+        <f>VLOOKUP(A82,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of open trades in last 6 months</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83" s="26" t="str">
+        <f>VLOOKUP(A83,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of open credit lines in the borrower's credit file.</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="26" t="str">
+        <f>VLOOKUP(A84,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="26" t="str">
+        <f>VLOOKUP(A85,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts 90 or more days past due in last 24 months</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="26" t="str">
+        <f>VLOOKUP(A86,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts currently 30 days past due (updated in past 2 months)</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="26" t="str">
+        <f>VLOOKUP(A87,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts currently 120 days past due (updated in past 2 months)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="26" t="str">
+        <f>VLOOKUP(A88,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of satisfactory accounts</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="26" t="str">
+        <f>VLOOKUP(A89,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving trades with balance &gt;0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="26" t="str">
+        <f>VLOOKUP(A90,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of revolving accounts</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="26" t="str">
+        <f>VLOOKUP(A91,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of open revolving accounts</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="26" t="str">
+        <f>VLOOKUP(A92,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of installment accounts</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="26" t="str">
+        <f>VLOOKUP(A93,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of bankcard accounts</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="26" t="str">
+        <f>VLOOKUP(A94,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of satisfactory bankcard accounts</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="26" t="str">
+        <f>VLOOKUP(A95,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active revolving trades</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="26" t="str">
+        <f>VLOOKUP(A96,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of currently active bankcard accounts</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" s="26" t="str">
+        <f>VLOOKUP(A97,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of accounts ever 120 or more days past due</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" s="26" t="str">
+        <f>VLOOKUP(A98,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Next scheduled payment date</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="26" t="str">
+        <f>VLOOKUP(A99,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent revolving delinquency.</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="26" t="str">
+        <f>VLOOKUP(A100,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent inquiry.</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="26" t="str">
+        <f>VLOOKUP(A101,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent bankcard delinquency</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" s="26" t="str">
+        <f>VLOOKUP(A102,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent bankcard account opened.</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103" s="26" t="str">
+        <f>VLOOKUP(A103,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent installment accounts opened</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="26" t="str">
+        <f>VLOOKUP(A104,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months since the last public record.</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="26" t="str">
+        <f>VLOOKUP(A105,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent 90-day or worse rating</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="26" t="str">
+        <f>VLOOKUP(A106,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of months since the borrower's last delinquency.</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="26" t="str">
+        <f>VLOOKUP(A107,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of mortgage accounts.</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="26" t="str">
+        <f>VLOOKUP(A108,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent account opened</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="26" t="str">
+        <f>VLOOKUP(A109,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since most recent revolving account opened</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="26" t="str">
+        <f>VLOOKUP(A110,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since oldest revolving account opened</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>299</v>
+      </c>
+      <c r="B111" s="26" t="str">
+        <f>VLOOKUP(A111,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Months since oldest bank installment account opened</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="26" t="str">
+        <f>VLOOKUP(A112,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Maximum current balance owed on all revolving accounts</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" s="26" t="str">
+        <f>VLOOKUP(A113,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Current status of the loan</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="26" t="str">
+        <f>VLOOKUP(A114,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="26" t="str">
+        <f>VLOOKUP(A115,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Last month payment was received</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="26" t="str">
+        <f>VLOOKUP(A116,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Last total payment amount received</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="26" t="str">
+        <f>VLOOKUP(A117,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The lower boundary range the borrower’s last FICO pulled belongs to.</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" s="26" t="str">
+        <f>VLOOKUP(A118,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The upper boundary range the borrower’s last FICO pulled belongs to.</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="26" t="str">
+        <f>VLOOKUP(A119,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The most recent month LC pulled credit for this loan</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="26" t="str">
+        <f>VLOOKUP(A120,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The month which the loan was funded</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="26" t="str">
+        <f>VLOOKUP(A121,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Interest Rate on the loan</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="26" t="str">
+        <f>VLOOKUP(A122,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="26" t="str">
+        <f>VLOOKUP(A123,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>289</v>
+      </c>
+      <c r="B124" s="26" t="str">
+        <f>VLOOKUP(A124,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of credit inquiries in past 12 months</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>287</v>
+      </c>
+      <c r="B125" s="26" t="str">
+        <f>VLOOKUP(A125,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of personal finance inquiries</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="26" t="str">
+        <f>VLOOKUP(A126,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" s="26" t="str">
+        <f>VLOOKUP(A127,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="26" t="str">
+        <f>VLOOKUP(A128,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="26" t="str">
+        <f>VLOOKUP(A129,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>LC assigned loan grade</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="26" t="str">
+        <f>VLOOKUP(A130,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B131" s="26" t="str">
+        <f>VLOOKUP(A131,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="26" t="str">
+        <f>VLOOKUP(A132,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The lower boundary range the borrower’s FICO at loan origination belongs to.</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="26" t="str">
+        <f>VLOOKUP(A133,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The upper boundary range the borrower’s FICO at loan origination belongs to.</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" s="26" t="str">
+        <f>VLOOKUP(A134,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The job title supplied by the Borrower when applying for the loan.*</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" s="26" t="str">
+        <f>VLOOKUP(A135,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v xml:space="preserve">Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="26" t="str">
+        <f>VLOOKUP(A136,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The month the borrower's earliest reported credit line was opened</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>21</v>
+      </c>
+      <c r="B137" s="26" t="str">
+        <f>VLOOKUP(A137,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>362</v>
+      </c>
+      <c r="B138" s="26" t="str">
+        <f>VLOOKUP(A138,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The method by which the borrower receives their loan. Possible values are: CASH, DIRECT_PAY</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139" s="26" t="str">
+        <f>VLOOKUP(A139,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Loan description provided by the borrower</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="26" t="str">
+        <f>VLOOKUP(A140,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The past-due amount owed for the accounts on which the borrower is now delinquent.</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="26" t="str">
+        <f>VLOOKUP(A141,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="26" t="str">
+        <f>VLOOKUP(A142,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of collections in 12 months excluding medical collections</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>226</v>
+      </c>
+      <c r="B143" s="26" t="str">
+        <f>VLOOKUP(A143,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>post charge off collection fee</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="26" t="str">
+        <f>VLOOKUP(A144,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of charge-offs within 12 months</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="26" t="str">
+        <f>VLOOKUP(A145,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Ratio of total current balance to high credit/credit limit for all bankcard accounts.</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>296</v>
+      </c>
+      <c r="B146" s="26" t="str">
+        <f>VLOOKUP(A146,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Total open to buy on revolving bankcards.</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="26" t="str">
+        <f>VLOOKUP(A147,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Average current balance of all accounts</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="26" t="str">
+        <f>VLOOKUP(A148,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="26" t="str">
+        <f>VLOOKUP(A149,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Balance to credit limit on all trades</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B150" s="26" t="str">
+        <f>VLOOKUP(A150,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The state provided by the borrower in the loan application</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="26" t="str">
+        <f>VLOOKUP(A151,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>Number of trades opened in past 24 months.</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="26" t="str">
+        <f>VLOOKUP(A152,Reference!$A$1:$B$280,2,FALSE)</f>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B152" xr:uid="{98433B6A-F0B1-47F7-9220-1FBF8BF1217D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E9BCB1-703A-4B5C-B14D-E2DDE8000827}">
   <dimension ref="A1:B280"/>
   <sheetViews>
@@ -6131,7 +7392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7455,7 +8716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F123"/>
   <sheetViews>
@@ -8637,7 +9898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -8746,906 +10007,769 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051187F3-BE4B-40FE-8A6E-CC2962D4D6D5}">
-  <dimension ref="A1:B111"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A84AB5-2DE2-4E18-8BF5-683C6107F941}">
+  <dimension ref="A2:A152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.88671875" style="26" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>247</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>226</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>252</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>254</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>255</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>383</v>
       </c>
-      <c r="B56" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>128</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>266</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>384</v>
       </c>
-      <c r="B61" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" s="26" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>287</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="27" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>289</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>295</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="27" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="27" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>296</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="27" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="27" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>298</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>125</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>111</v>
       </c>
-      <c r="B84" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>304</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>305</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>116</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>122</v>
       </c>
-      <c r="B95" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>119</v>
       </c>
-      <c r="B102" s="26" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
-      <c r="B108" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>307</v>
       </c>
-      <c r="B109" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>308</v>
       </c>
-      <c r="B110" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="26" t="s">
-        <v>157</v>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
